--- a/data_in/PesticideData/Illinois_Seed_Data.xlsx
+++ b/data_in/PesticideData/Illinois_Seed_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/paulukonis_elizabeth_epa_gov/Documents/Profile/Documents/GitHub/pollinator_probabilistic_loading/data_in/PesticideData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="13_ncr:1_{980CACF7-2C01-411B-8B6C-E67FF1BD13E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2CD9B89-A477-4A66-BEB5-812BF189EF37}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="13_ncr:1_{980CACF7-2C01-411B-8B6C-E67FF1BD13E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{094D97DB-0BD6-4E84-A2DA-3494B0F1D87C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9E2F9CE-A679-41FB-9A63-E817C9201B66}"/>
   </bookViews>
@@ -467,7 +467,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -478,15 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -806,7 +806,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,6 +938,11 @@
       </c>
       <c r="J13" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1375,17 +1380,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1394,27 +1399,27 @@
       <c r="C2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="27" t="s">
         <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="31"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="27"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
         <v>3</v>
@@ -1427,7 +1432,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -1436,7 +1441,7 @@
       <c r="C4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -1449,14 +1454,14 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="31"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="27"/>
       <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1471,7 +1476,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -1480,7 +1485,7 @@
       <c r="C6" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="31" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1497,14 +1502,14 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="31"/>
       <c r="F7" s="10" t="s">
         <v>45</v>
       </c>
@@ -1519,7 +1524,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="15" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -1528,7 +1533,7 @@
       <c r="C8" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>76</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -1545,14 +1550,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="31"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="17" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="27"/>
       <c r="F9" s="10" t="s">
         <v>47</v>
       </c>
@@ -1572,14 +1577,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
@@ -1587,13 +1592,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
@@ -1607,13 +1612,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
@@ -1621,7 +1626,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
+      <c r="A18" s="26"/>
       <c r="B18" t="s">
         <v>62</v>
       </c>
@@ -1633,7 +1638,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>81</v>
       </c>
       <c r="B19" t="s">
@@ -1644,7 +1649,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" t="s">
         <v>62</v>
       </c>
@@ -1711,6 +1716,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="D8:D9"/>
@@ -1719,13 +1731,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D22" r:id="rId1" xr:uid="{2A92A7ED-8AC9-4ECD-9602-354FBE4A9D2E}"/>
